--- a/Dataset/Folds/Fold_4/Excel/53.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/53.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4768" uniqueCount="551">
   <si>
     <t>Doi</t>
   </si>
@@ -1801,6 +1801,146 @@
   </si>
   <si>
     <t>[Alexander%Muacevic%NULL%0,                           John R%Adler%NULL%0,                           Ramez%Kouzy%NULL%2,                           Ramez%Kouzy%NULL%0,                           Joseph%Abi Jaoude%NULL%1,                           Afif%Kraitem%NULL%1,                           Molly B%El Alam%NULL%1,                           Basil%Karam%NULL%1,                           Elio%Adib%NULL%1,                           Jabra%Zarka%NULL%1,                           Cindy%Traboulsi%NULL%1,                           Elie W%Akl%NULL%1,                           Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,                            Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,                            Catey%Bunce%Catey.bunce@kcl.ac.uk%2,                            Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,                            Kamal%Al Nasr%NULL%2,                            Kamal%Al Nasr%NULL%0,                            Ross%Gore%NULL%1,                            Abdullah%Wahbeh%NULL%2,                            Abdullah%Wahbeh%NULL%0,                            Tareq%Nasralah%t.nasralah@northeastern.edu%2,                            Tareq%Nasralah%t.nasralah@northeastern.edu%0,                            Mohammad%Al-Ramahi%NULL%2,                            Mohammad%Al-Ramahi%NULL%0,                            Omar%El-Gayar%NULL%2,                            Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,                            Dario%Piazza%NULL%1,                            Maria Rosaria%Valerio%NULL%1,                            Nicolò%Borsellino%NULL%1,                            Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,                            Carolina%Gomez‐Moreno%NULL%1,                            Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,                            Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,                            Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,                            Stan%Innes%S.Innes@murdoch.edu.au%1,                            J. Keith%Simpson%k.simpson@murdoch.edu.au%1,                            Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                            Jon-Patrick%Allem%NULL%2,                            Jon-Patrick%Allem%NULL%0,                            Richard%Zowalla%NULL%1,                            Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,                            Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,                            Josep%Vidal-Alaball%NULL%2,                            Josep%Vidal-Alaball%NULL%0,                            Joseph%Downing%NULL%2,                            Joseph%Downing%NULL%0,                            Francesc%López Seguí%NULL%2,                            Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,                            Özlem%Mıdık%NULL%2,                            Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,                            Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                            Nazakat%Hamassed%NULL%2,                            Nazakat%Hamassed%NULL%0,                            Hardawan%Kakashekh%NULL%1,                            Muhammad%Saud%NULL%1,                            Mohammad Amin%Bahrami%NULL%1,                            Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,                            Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,                            Hersh Rasool%Murad%NULL%2,                            Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                            John R%Adler%NULL%0,                            Ramez%Kouzy%NULL%2,                            Ramez%Kouzy%NULL%0,                            Joseph%Abi Jaoude%NULL%1,                            Afif%Kraitem%NULL%1,                            Molly B%El Alam%NULL%1,                            Basil%Karam%NULL%1,                            Elio%Adib%NULL%1,                            Jabra%Zarka%NULL%1,                            Cindy%Traboulsi%NULL%1,                            Elie W%Akl%NULL%1,                            Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%1,                             Christopher L.%Carroll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%1,                             Catey%Bunce%Catey.bunce@kcl.ac.uk%2,                             Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%2,                             Kamal%Al Nasr%NULL%2,                             Kamal%Al Nasr%NULL%0,                             Ross%Gore%NULL%1,                             Abdullah%Wahbeh%NULL%2,                             Abdullah%Wahbeh%NULL%0,                             Tareq%Nasralah%t.nasralah@northeastern.edu%2,                             Tareq%Nasralah%t.nasralah@northeastern.edu%0,                             Mohammad%Al-Ramahi%NULL%2,                             Mohammad%Al-Ramahi%NULL%0,                             Omar%El-Gayar%NULL%2,                             Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%1,                             Dario%Piazza%NULL%1,                             Maria Rosaria%Valerio%NULL%1,                             Nicolò%Borsellino%NULL%1,                             Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%1,                             Carolina%Gomez‐Moreno%NULL%1,                             Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%1,                             Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2,                             Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0,                             Stan%Innes%S.Innes@murdoch.edu.au%1,                             J. Keith%Simpson%k.simpson@murdoch.edu.au%1,                             Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                             Jon-Patrick%Allem%NULL%2,                             Jon-Patrick%Allem%NULL%0,                             Richard%Zowalla%NULL%1,                             Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%2,                             Wasim%Ahmed%Wasim.Ahmed@Newcastle.ac.uk%0,                             Josep%Vidal-Alaball%NULL%2,                             Josep%Vidal-Alaball%NULL%0,                             Joseph%Downing%NULL%2,                             Joseph%Downing%NULL%0,                             Francesc%López Seguí%NULL%2,                             Francesc%López Seguí%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%1,                             Özlem%Mıdık%NULL%2,                             Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%1,                             Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                             Nazakat%Hamassed%NULL%2,                             Nazakat%Hamassed%NULL%0,                             Hardawan%Kakashekh%NULL%1,                             Muhammad%Saud%NULL%1,                             Mohammad Amin%Bahrami%NULL%1,                             Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%2,                             Araz Ramazan%Ahmad%araz.ahmad85@uor.edu.krd%0,                             Hersh Rasool%Murad%NULL%2,                             Hersh Rasool%Murad%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                             John R%Adler%NULL%0,                             Ramez%Kouzy%NULL%2,                             Ramez%Kouzy%NULL%0,                             Joseph%Abi Jaoude%NULL%1,                             Afif%Kraitem%NULL%1,                             Molly B%El Alam%NULL%1,                             Basil%Karam%NULL%1,                             Elio%Adib%NULL%1,                             Jabra%Zarka%NULL%1,                             Cindy%Traboulsi%NULL%1,                             Elie W%Akl%NULL%1,                             Khalil%Baddour%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplemental Digital Content is available in the text.
+</t>
+  </si>
+  <si>
+    <t>[Sapna R.%Kudchadkar%NULL%0, Christopher L.%Carroll%NULL%2]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Sohaib R%Rufai%sohaibrufai@gmail.com%0, Catey%Bunce%Catey.bunce@kcl.ac.uk%2, Catey%Bunce%Catey.bunce@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0, Kamal%Al Nasr%NULL%2, Kamal%Al Nasr%NULL%0, Ross%Gore%NULL%1, Abdullah%Wahbeh%NULL%2, Abdullah%Wahbeh%NULL%0, Tareq%Nasralah%t.nasralah@northeastern.edu%2, Tareq%Nasralah%t.nasralah@northeastern.edu%0, Mohammad%Al-Ramahi%NULL%2, Mohammad%Al-Ramahi%NULL%0, Omar%El-Gayar%NULL%2, Omar%El-Gayar%NULL%0]</t>
+  </si>
+  <si>
+    <t>JMIR Publications</t>
+  </si>
+  <si>
+    <t>[Konstantin S.%Sharov%const.sharov@mail.ru%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Vittorio%Gebbia%NULL%0, Dario%Piazza%NULL%1, Maria Rosaria%Valerio%NULL%1, Nicolò%Borsellino%NULL%1, Alberto%Firenze%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Society of Clinical Oncology</t>
+  </si>
+  <si>
+    <t>[Maria Renee%Jimenez‐Sotomayor%NULL%0, Carolina%Gomez‐Moreno%NULL%1, Enrique%Soto‐Perez‐de‐Celis%enrique.sotop@incmnsz.mx%1]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Inc.</t>
+  </si>
+  <si>
+    <t>[Greg%Kawchuk%greg.kawchuk@ualberta.ca%0, Jan%Hartvigsen%jhartvigsen@health.sdu.dk%2, Jan%Hartvigsen%jhartvigsen@health.sdu.dk%0, Stan%Innes%S.Innes@murdoch.edu.au%1, J. Keith%Simpson%k.simpson@murdoch.edu.au%1, Brian%Gushaty%bgushaty@gushaty.com%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;The aim of this study was to elicit the views of medical faculty students regarding the COVID-19 pandemic.
+ This descriptive study was performed with Ondokuz Mayıs University Medical Faculty students on 24–27 March, 2020. The Medical Faculty currently has 2051 students.
+ A questionnaire was used as a data collection tool.
+ For that purpose, the authors designed a questionnaire specifically for this research via the “Google Forms” web.
+ This consisted of 40 open- and close-ended questions.
+ The questionnaire was completed by 1375 (67.1%) students.
+ Accordingly, 52.4% of medical students reported feeling mentally unwell.
+ Although 50.8% of medical students reported generally/usually obtaining information about COVID-19 through the social media, 82.0% did not trust information/messages arriving through the social media and WhatsApp.
+ We found that 86.7% of students regarded frequent hand washing as the most important means of protection against COVID-19, and 19.3% of students did not regard the COVID-19 pandemic as a severe public health problem for Turkey at that moment.
+ In addition, 61.6% of students stated that a suppression strategy involving tight restrictions need to be applied to being the pandemic under control in Turkey.
+ Use can be made of medical students in the transmission of accurate information during the COVID-19 pandemic.
+ Students can be excellent activists on these subjects in countries in which medical education is suspended.
+ Measures therefore need to be taken concerning the transmission of up to date and accurate information to medical students.
+</t>
+  </si>
+  <si>
+    <t>[Servet%Aker%servetaker@gmail.com%0, Özlem%Mıdık%NULL%2, Özlem%Mıdık%NULL%0]</t>
+  </si>
+  <si>
+    <t>Springer US</t>
+  </si>
+  <si>
+    <t>[Bahar%Yuksel%baharyl86@gmail.com%0, Kubra%Cakmak%NULL%1]</t>
+  </si>
+  <si>
+    <t>Cureus</t>
   </si>
 </sst>
 </file>
@@ -2148,10 +2288,10 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>531</v>
       </c>
       <c r="E2" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -2163,10 +2303,10 @@
         <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3">
@@ -2183,7 +2323,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -2195,10 +2335,10 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4">
@@ -2215,7 +2355,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -2227,10 +2367,10 @@
         <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5">
@@ -2247,7 +2387,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>538</v>
       </c>
       <c r="F5" t="s">
         <v>52</v>
@@ -2259,10 +2399,10 @@
         <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>114</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6">
@@ -2273,7 +2413,7 @@
         <v>2020.0</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -2282,19 +2422,19 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>411</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
         <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>412</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
@@ -2305,28 +2445,28 @@
         <v>43953.0</v>
       </c>
       <c r="C7" t="s">
-        <v>372</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>373</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>499</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>375</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
         <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>414</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -2337,28 +2477,28 @@
         <v>44044.0</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>416</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
         <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>417</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -2375,7 +2515,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -2387,10 +2527,10 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10">
@@ -2401,28 +2541,28 @@
         <v>43959.0</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>416</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
         <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>412</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -2439,7 +2579,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -2451,10 +2591,10 @@
         <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12">
@@ -2468,10 +2608,10 @@
         <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>502</v>
+        <v>544</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -2483,10 +2623,10 @@
         <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>381</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13">
@@ -2503,7 +2643,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>503</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -2515,10 +2655,10 @@
         <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14">
@@ -2529,28 +2669,28 @@
         <v>2020.0</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
         <v>114</v>
       </c>
       <c r="J14" t="s">
-        <v>423</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
@@ -2561,28 +2701,28 @@
         <v>2020.0</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>296</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
         <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>425</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -2596,10 +2736,10 @@
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>546</v>
       </c>
       <c r="E16" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -2611,10 +2751,10 @@
         <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>381</v>
+        <v>114</v>
       </c>
       <c r="J16" t="s">
-        <v>114</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17">
@@ -2625,28 +2765,28 @@
         <v>43936.0</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>298</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>411</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
         <v>114</v>
       </c>
       <c r="J17" t="s">
-        <v>417</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
@@ -2657,25 +2797,25 @@
         <v>44042.0</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>505</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
         <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>371</v>
+        <v>114</v>
       </c>
       <c r="J18" t="s">
         <v>114</v>
@@ -2695,7 +2835,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -2707,10 +2847,10 @@
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="J19" t="s">
-        <v>114</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20">
@@ -2727,7 +2867,7 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>507</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
         <v>86</v>
@@ -2739,10 +2879,10 @@
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="J20" t="s">
-        <v>114</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21">
@@ -2759,7 +2899,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>508</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>
@@ -2771,10 +2911,10 @@
         <v>92</v>
       </c>
       <c r="I21" t="s">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="J21" t="s">
-        <v>114</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
